--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,16 @@
           <t>Quantity</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P/B</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Iphone 13 Pro Max</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,36 +458,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro Max</t>
+          <t>iphone 13 Pro Max</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>1000000.00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Erkaklar kiyim</t>
+          <t>Bolalari kiyimi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>22000.00</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Erkaklar kiyimi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>99000.00</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C4" t="n">
+        <v>112</v>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
     </row>
